--- a/output/xlsx/RF006 - Gerenciar Perfis de Competencias--ART-.xlsx
+++ b/output/xlsx/RF006 - Gerenciar Perfis de Competencias--ART-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="67">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>Lider de Pessoas esta autenticado no sistema e  tem permissao para gerenciar perfis de competencias.</t>
+    <t>Lider de Pessoas esta autenticado no sistema e  tem permissao para gerenciar Perfis de Competencias.</t>
   </si>
   <si>
     <t>#</t>
@@ -92,10 +92,10 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de perfis de competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Perfis de Competencias a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona um perfil de competencias da listagem</t>
@@ -113,7 +113,7 @@
     <t>Lider de Pessoas nao confirma a exclusao do perfil</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias com o perfil de competencias excluido</t>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias com o perfil de competencias excluido</t>
   </si>
   <si>
     <t>TC2</t>
@@ -122,22 +122,28 @@
     <t>Lider de Pessoas confirma a exclusao do perfil</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias sem o perfil de competencias excluido</t>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias sem o perfil de competencias excluido</t>
   </si>
   <si>
     <t>TC3</t>
   </si>
   <si>
-    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de perfis de competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Perfil de Competencias</t>
   </si>
   <si>
     <t>TC4</t>
   </si>
   <si>
-    <t>Lider de Pessoas clica na opcao 'Novo' para criar um novo perfil</t>
+    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Perfis de Competencias a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Novo' para criar um Novo Perfil de Competencias</t>
   </si>
   <si>
     <t>SYSTEM apresenta o formulario para cadastro e alteracao de perfil de competencias</t>
@@ -182,19 +188,13 @@
     <t>Lider de Pessoas clica na opcao 'Salvar'</t>
   </si>
   <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar o novo perfil, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o perfil, informando o campo ou a validacao que falhou</t>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar o novo Perfil de Competencias, informando o campo ou a validacao que falhou</t>
   </si>
   <si>
     <t>TC6</t>
   </si>
   <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o perfil</t>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Perfil de Competencias, informando o campo ou a validacao que falhou</t>
   </si>
   <si>
     <t>TC7</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">Postcondition: </t>
   </si>
   <si>
-    <t>A gestao de perfis de competencias e realizada com sucesso.</t>
+    <t>A gestao de Perfis de Competencias e realizada com sucesso.</t>
   </si>
   <si>
     <t>TC8</t>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -893,377 +893,377 @@
         <v>1.0</v>
       </c>
       <c r="B30" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B31" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B32" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="C30" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s" s="7">
+      <c r="E33" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36">
+      <c r="A36" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="E30" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33">
-      <c r="A33" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s" s="4">
+      <c r="C36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D33" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s" s="4">
+      <c r="D36" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F33" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="9">
+      <c r="F36" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B34" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s" s="9">
+      <c r="B37" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F34" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="8">
+      <c r="F37" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B35" t="s" s="8">
+      <c r="B38" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C35" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="5">
+      <c r="C38" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B36" t="s" s="5">
+      <c r="B39" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C36" t="s" s="5">
+      <c r="C39" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D36" t="s" s="5">
+      <c r="D39" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E36" t="s" s="5">
+      <c r="E39" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F36" t="s" s="5">
+      <c r="F39" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B37" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E37" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B38" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="E38" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B39" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="E39" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B40" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43">
+      <c r="A43" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B47" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B48" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B49" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B40" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C40" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="E40" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="10">
+      <c r="B50" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="10">
         <v>5.0</v>
       </c>
-      <c r="B41" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="E41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B42" t="s" s="7">
+      <c r="B51" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="C42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s" s="7">
+      <c r="C51" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s" s="7">
         <v>50</v>
       </c>
-      <c r="E42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B43" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C43" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="E43" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B44" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="C44" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="E44" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B45" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C45" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="E45" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48">
-      <c r="A48" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B48" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F48" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B49" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F49" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B50" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B51" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C51" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D51" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E51" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F51" t="s" s="5">
-        <v>25</v>
+      <c r="E51" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D52" t="s" s="7">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s" s="6">
         <v>2</v>
@@ -1274,16 +1274,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B53" t="s" s="7">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D53" t="s" s="7">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E53" t="s" s="6">
         <v>2</v>
@@ -1294,16 +1294,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B54" t="s" s="7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D54" t="s" s="7">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E54" t="s" s="6">
         <v>2</v>
@@ -1314,218 +1314,218 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B55" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="E55" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58">
+      <c r="A58" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D61" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F61" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B62" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E62" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B63" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B64" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="E64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B55" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C55" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="E55" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="10">
+      <c r="B65" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C65" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E65" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="10">
         <v>5.0</v>
       </c>
-      <c r="B56" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C56" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="E56" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B57" t="s" s="7">
+      <c r="B66" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="C57" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s" s="7">
+      <c r="C66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s" s="7">
         <v>50</v>
       </c>
-      <c r="E57" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B58" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C58" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="E58" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F58" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B59" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="C59" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="E59" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B60" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C60" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="E60" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63">
-      <c r="A63" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B63" t="s" s="4">
-        <v>59</v>
-      </c>
-      <c r="C63" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F63" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B64" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F64" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B65" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C65" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B66" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C66" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D66" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E66" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F66" t="s" s="5">
-        <v>25</v>
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B67" t="s" s="7">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D67" t="s" s="7">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E67" t="s" s="6">
         <v>2</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D68" t="s" s="7">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E68" t="s" s="6">
         <v>2</v>
@@ -1556,16 +1556,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D69" t="s" s="7">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E69" t="s" s="6">
         <v>2</v>
@@ -1576,218 +1576,218 @@
     </row>
     <row r="70">
       <c r="A70" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B70" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="E70" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="C73" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F74" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D76" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F76" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B77" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B70" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="E70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F70" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n" s="10">
+      <c r="B80" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="10">
         <v>5.0</v>
       </c>
-      <c r="B71" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="E71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B72" t="s" s="7">
+      <c r="B81" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
+      <c r="C81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s" s="7">
         <v>50</v>
       </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B74" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B75" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="E75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78">
-      <c r="A78" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B78" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="C78" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F79" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B80" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B81" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C81" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D81" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E81" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F81" t="s" s="5">
-        <v>25</v>
+      <c r="E81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1798,16 +1798,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1818,16 +1818,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B84" t="s" s="7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D84" t="s" s="7">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E84" t="s" s="6">
         <v>2</v>
@@ -1838,16 +1838,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n" s="10">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="B85" t="s" s="7">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C85" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D85" t="s" s="7">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E85" t="s" s="6">
         <v>2</v>
@@ -1857,111 +1857,73 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B86" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="E86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F86" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B87" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="C87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="E87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F87" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B88" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C88" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="E88" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F88" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A86" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="B86" t="s" s="8">
+        <v>64</v>
+      </c>
+      <c r="C86" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87"/>
+    <row r="88"/>
     <row r="89">
-      <c r="A89" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B89" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="C89" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="E89" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F89" t="s" s="6">
+      <c r="A89" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s" s="4">
+        <v>65</v>
+      </c>
+      <c r="C89" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B90" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C90" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="E90" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F90" t="s" s="6">
+      <c r="A90" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="8">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B91" t="s" s="8">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s" s="8">
         <v>2</v>
@@ -1976,100 +1938,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92"/>
-    <row r="93"/>
+    <row r="92">
+      <c r="A92" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D92" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E92" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F92" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B93" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="94">
-      <c r="A94" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B94" t="s" s="4">
-        <v>65</v>
-      </c>
-      <c r="C94" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D94" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E94" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F94" t="s" s="4">
+      <c r="A94" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B94" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C94" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E94" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B95" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C95" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E95" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F95" t="s" s="9">
+      <c r="A95" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B95" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="C95" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E95" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B96" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C96" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E96" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F96" t="s" s="8">
+      <c r="A96" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B96" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C96" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="E96" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B97" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C97" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D97" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E97" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F97" t="s" s="5">
-        <v>25</v>
+      <c r="A97" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B97" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C97" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="E97" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B98" t="s" s="7">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C98" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D98" t="s" s="7">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E98" t="s" s="6">
         <v>2</v>
@@ -2080,16 +2080,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B99" t="s" s="7">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C99" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D99" t="s" s="7">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E99" t="s" s="6">
         <v>2</v>
@@ -2100,16 +2100,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B100" t="s" s="7">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C100" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D100" t="s" s="7">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E100" t="s" s="6">
         <v>2</v>
@@ -2120,16 +2120,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n" s="10">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="B101" t="s" s="7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D101" t="s" s="7">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E101" t="s" s="6">
         <v>2</v>
@@ -2140,16 +2140,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n" s="10">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="B102" t="s" s="7">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C102" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D102" t="s" s="7">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E102" t="s" s="6">
         <v>2</v>
@@ -2159,122 +2159,22 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B103" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C103" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="E103" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F103" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B104" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="C104" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="E104" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F104" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B105" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C105" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="E105" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F105" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B106" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="C106" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="E106" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F106" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B107" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C107" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="E107" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F107" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="8">
+      <c r="A103" t="s" s="8">
         <v>63</v>
       </c>
-      <c r="B108" t="s" s="8">
+      <c r="B103" t="s" s="8">
         <v>64</v>
       </c>
-      <c r="C108" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E108" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F108" t="s" s="8">
+      <c r="C103" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2287,18 +2187,18 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B90:D90"/>
     <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B103:F103"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
